--- a/playground_data/result/fmt_seg_C_CDC記者會textdate_frequency.xlsx
+++ b/playground_data/result/fmt_seg_C_CDC記者會textdate_frequency.xlsx
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -1443,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BC2" t="n">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="BB3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BC3" t="n">
         <v>0</v>
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="BB4" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="BC4" t="n">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="BC5" t="n">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="BB6" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="BC6" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="BC7" t="n">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -2796,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="n">
         <v>0</v>
